--- a/chair_all.xlsx
+++ b/chair_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\マイドライブ\work\会社アプリ関連\チェア修理アプリ用\修理アプリファイル\githubアップロードセット_test6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B354C4-AD2C-4229-B1BF-DCA0A5162BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70584BFF-7D4E-48B1-AF8F-6C6F8F40C1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="552">
   <si>
     <t>シリーズ</t>
   </si>
@@ -284,9 +284,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>座:丸張り</t>
-  </si>
-  <si>
     <t>アイガー</t>
   </si>
   <si>
@@ -492,9 +489,6 @@
   </si>
   <si>
     <t>HK260W</t>
-  </si>
-  <si>
-    <t>FK250AT</t>
   </si>
   <si>
     <t>FK250T</t>
@@ -1135,10 +1129,6 @@
   </si>
   <si>
     <t>ビーチ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>VM211B</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1539,9 +1529,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>19,000</t>
-  </si>
-  <si>
     <t>HK280A</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1567,9 +1554,6 @@
   </si>
   <si>
     <t>SG251A</t>
-  </si>
-  <si>
-    <t>SG263A_AB_AU</t>
   </si>
   <si>
     <t>SQ257A</t>
@@ -1618,9 +1602,6 @@
   <si>
     <t>AL261A_AL261AH</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AL253A_AL253AH</t>
   </si>
   <si>
     <t>フライクライン360°</t>
@@ -1983,6 +1964,54 @@
   </si>
   <si>
     <t>MC10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AL253A_AL253AH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>genkou</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>genkou</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>haiban</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FK250AT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hodaka</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SG263A_AB_AU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カバーのみ：　クッション-1000円 2026年2月時点</t>
+    <rPh sb="17" eb="18">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VM210B</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2052,7 +2081,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2062,6 +2091,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,7 +2128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2115,10 +2150,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2336,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F325" sqref="F325"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2346,7 +2383,7 @@
     <col min="2" max="2" width="24.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="38.54296875" customWidth="1"/>
+    <col min="12" max="12" width="41.90625" customWidth="1"/>
     <col min="13" max="13" width="12.90625" customWidth="1"/>
     <col min="14" max="28" width="8.81640625" customWidth="1"/>
   </cols>
@@ -2356,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -2365,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -2386,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>7</v>
@@ -2395,7 +2432,7 @@
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -2408,18 +2445,18 @@
       <c r="K2" s="8"/>
       <c r="L2" s="6"/>
       <c r="M2" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2431,18 +2468,18 @@
       <c r="K3" s="10"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2462,7 +2499,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -2487,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -2512,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -2537,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -2554,7 +2591,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1">
@@ -2562,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -2579,7 +2616,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
@@ -2587,7 +2624,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
@@ -2604,7 +2641,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1">
@@ -2612,7 +2649,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
@@ -2643,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -2660,7 +2697,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1">
@@ -2668,7 +2705,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -2685,7 +2722,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1">
@@ -2693,7 +2730,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -2710,7 +2747,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1">
@@ -2718,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
@@ -2733,18 +2770,18 @@
       <c r="K15" s="10"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2756,16 +2793,16 @@
       <c r="K16" s="10"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2777,18 +2814,18 @@
       <c r="K17" s="10"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2800,7 +2837,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1">
@@ -2808,7 +2845,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>73</v>
@@ -2831,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
@@ -2848,7 +2885,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1">
@@ -2856,7 +2893,7 @@
         <v>47</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
@@ -2873,7 +2910,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1">
@@ -2881,7 +2918,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
@@ -2898,7 +2935,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1">
@@ -2906,7 +2943,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -2923,15 +2960,15 @@
       <c r="K23" s="10"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
@@ -2954,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
@@ -2971,7 +3008,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1">
@@ -2979,7 +3016,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>42</v>
@@ -2996,15 +3033,15 @@
       <c r="K26" s="10"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
@@ -3021,7 +3058,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1">
@@ -3029,7 +3066,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>42</v>
@@ -3046,15 +3083,15 @@
       <c r="K28" s="10"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
@@ -3071,15 +3108,15 @@
       <c r="K29" s="10"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>9</v>
@@ -3096,7 +3133,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1">
@@ -3104,10 +3141,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3137,10 +3174,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3168,7 +3205,7 @@
     <row r="33" spans="1:13" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
@@ -3187,7 +3224,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
@@ -3204,15 +3241,15 @@
       <c r="K34" s="10"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -3232,13 +3269,13 @@
     </row>
     <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3255,13 +3292,13 @@
     </row>
     <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3281,7 +3318,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
@@ -3298,15 +3335,15 @@
       <c r="K38" s="10"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -3319,15 +3356,15 @@
       <c r="K39" s="10"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
@@ -3340,15 +3377,15 @@
       <c r="K40" s="10"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -3361,15 +3398,15 @@
       <c r="K41" s="10"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5"/>
@@ -3382,7 +3419,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
@@ -3390,7 +3427,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
@@ -3407,15 +3444,15 @@
       <c r="K43" s="10"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
@@ -3432,15 +3469,15 @@
       <c r="K44" s="10"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
@@ -3457,7 +3494,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1">
@@ -3465,7 +3502,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>42</v>
@@ -3482,7 +3519,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1">
@@ -3490,7 +3527,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>42</v>
@@ -3507,7 +3544,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1">
@@ -3515,7 +3552,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>42</v>
@@ -3532,7 +3569,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1">
@@ -3540,7 +3577,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>42</v>
@@ -3557,7 +3594,7 @@
       <c r="K49" s="10"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="12.75" customHeight="1">
@@ -3565,7 +3602,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>42</v>
@@ -3582,7 +3619,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1">
@@ -3590,7 +3627,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>9</v>
@@ -3615,7 +3652,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
@@ -3640,7 +3677,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>42</v>
@@ -3662,10 +3699,10 @@
     </row>
     <row r="54" spans="1:13" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
@@ -3682,15 +3719,15 @@
       <c r="K54" s="10"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
@@ -3707,15 +3744,15 @@
       <c r="K55" s="10"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="12.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
@@ -3732,7 +3769,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="12.75" customHeight="1">
@@ -3740,7 +3777,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>9</v>
@@ -3757,7 +3794,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="12.75" customHeight="1">
@@ -3765,7 +3802,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>9</v>
@@ -3782,7 +3819,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="12.75" customHeight="1">
@@ -3790,7 +3827,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>42</v>
@@ -3807,7 +3844,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="12.75" customHeight="1">
@@ -3815,7 +3852,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
@@ -3832,7 +3869,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="12.75" customHeight="1">
@@ -3840,7 +3877,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>42</v>
@@ -3857,7 +3894,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="12.75" customHeight="1">
@@ -3865,7 +3902,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>42</v>
@@ -3882,7 +3919,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="12.75" customHeight="1">
@@ -3890,7 +3927,7 @@
         <v>15</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
@@ -3915,7 +3952,7 @@
         <v>15</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>9</v>
@@ -3940,7 +3977,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
@@ -3965,7 +4002,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>42</v>
@@ -3987,16 +4024,16 @@
     </row>
     <row r="67" spans="1:13" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4015,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
@@ -4032,7 +4069,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="12.75" customHeight="1">
@@ -4040,7 +4077,7 @@
         <v>16</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>9</v>
@@ -4057,7 +4094,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="12.75" customHeight="1">
@@ -4065,7 +4102,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>42</v>
@@ -4082,7 +4119,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1">
@@ -4090,7 +4127,7 @@
         <v>58</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>42</v>
@@ -4107,15 +4144,15 @@
       <c r="K71" s="10"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="5"/>
@@ -4128,18 +4165,18 @@
       <c r="K72" s="10"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4151,18 +4188,18 @@
       <c r="K73" s="10"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -4174,7 +4211,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="12.75" customHeight="1">
@@ -4182,13 +4219,13 @@
         <v>41</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -4199,7 +4236,7 @@
       <c r="K75" s="10"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="12.75" customHeight="1">
@@ -4207,13 +4244,13 @@
         <v>41</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -4224,7 +4261,7 @@
       <c r="K76" s="10"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="12.75" customHeight="1">
@@ -4232,13 +4269,13 @@
         <v>41</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4249,18 +4286,18 @@
       <c r="K77" s="10"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -4272,18 +4309,18 @@
       <c r="K78" s="10"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -4295,7 +4332,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="12.75" customHeight="1">
@@ -4303,10 +4340,10 @@
         <v>41</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -4327,7 +4364,7 @@
         <v>92500</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M80" s="3"/>
     </row>
@@ -4336,10 +4373,10 @@
         <v>41</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -4367,10 +4404,10 @@
         <v>41</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -4391,7 +4428,7 @@
         <v>66600</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M82" s="3"/>
     </row>
@@ -4400,10 +4437,10 @@
         <v>41</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -4428,13 +4465,13 @@
     </row>
     <row r="84" spans="1:13" ht="12.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -4446,18 +4483,18 @@
       <c r="K84" s="10"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="12.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -4469,15 +4506,15 @@
       <c r="K85" s="10"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="12.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>9</v>
@@ -4497,10 +4534,10 @@
     </row>
     <row r="87" spans="1:13" ht="12.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>9</v>
@@ -4521,7 +4558,7 @@
     <row r="88" spans="1:13" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="5"/>
@@ -4534,334 +4571,264 @@
       <c r="K88" s="10"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="12.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="5"/>
+        <v>366</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="10">
-        <v>27000</v>
-      </c>
-      <c r="H89" s="10">
-        <v>28000</v>
-      </c>
-      <c r="I89" s="10">
-        <v>30000</v>
-      </c>
-      <c r="J89" s="10">
-        <v>42000</v>
-      </c>
-      <c r="K89" s="10">
-        <v>45000</v>
-      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
       <c r="L89" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D90" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="10">
-        <v>28000</v>
-      </c>
-      <c r="H90" s="10">
-        <v>29000</v>
-      </c>
-      <c r="I90" s="10">
-        <v>31000</v>
-      </c>
-      <c r="J90" s="10">
-        <v>43000</v>
-      </c>
-      <c r="K90" s="10">
-        <v>46000</v>
-      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
       <c r="L90" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="12.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>439</v>
+        <v>366</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>434</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="10">
-        <v>28000</v>
-      </c>
-      <c r="H91" s="10">
-        <v>29000</v>
-      </c>
-      <c r="I91" s="10">
-        <v>31000</v>
-      </c>
-      <c r="J91" s="10">
-        <v>43000</v>
-      </c>
-      <c r="K91" s="10">
-        <v>46000</v>
-      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
       <c r="L91" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="12.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D92" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="10">
-        <v>26000</v>
-      </c>
-      <c r="H92" s="10">
-        <v>28000</v>
-      </c>
-      <c r="I92" s="10">
-        <v>32000</v>
-      </c>
-      <c r="J92" s="10">
-        <v>46000</v>
-      </c>
-      <c r="K92" s="10">
-        <v>50000</v>
-      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
       <c r="L92" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="12.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>445</v>
+        <v>366</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="10">
-        <v>26000</v>
-      </c>
-      <c r="H93" s="10">
-        <v>28000</v>
-      </c>
-      <c r="I93" s="10">
-        <v>32000</v>
-      </c>
-      <c r="J93" s="10">
-        <v>46000</v>
-      </c>
-      <c r="K93" s="10">
-        <v>50000</v>
-      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
       <c r="L93" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>442</v>
+        <v>366</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D94" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="10">
-        <v>26000</v>
-      </c>
-      <c r="H94" s="10">
-        <v>28000</v>
-      </c>
-      <c r="I94" s="10">
-        <v>32000</v>
-      </c>
-      <c r="J94" s="10">
-        <v>46000</v>
-      </c>
-      <c r="K94" s="10">
-        <v>50000</v>
-      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
       <c r="L94" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="12.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>440</v>
+        <v>366</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D95" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="10">
-        <v>27000</v>
-      </c>
-      <c r="H95" s="10">
-        <v>28000</v>
-      </c>
-      <c r="I95" s="10">
-        <v>30000</v>
-      </c>
-      <c r="J95" s="10">
-        <v>42000</v>
-      </c>
-      <c r="K95" s="10">
-        <v>45000</v>
-      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
       <c r="L95" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="12.75" customHeight="1">
       <c r="A96" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D96" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="10">
-        <v>28000</v>
-      </c>
-      <c r="H96" s="10">
-        <v>29000</v>
-      </c>
-      <c r="I96" s="10">
-        <v>31000</v>
-      </c>
-      <c r="J96" s="10">
-        <v>43000</v>
-      </c>
-      <c r="K96" s="10">
-        <v>46000</v>
-      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
       <c r="L96" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="12.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>441</v>
+        <v>366</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D97" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="10">
-        <v>28000</v>
-      </c>
-      <c r="H97" s="10">
-        <v>29000</v>
-      </c>
-      <c r="I97" s="10">
-        <v>31000</v>
-      </c>
-      <c r="J97" s="10">
-        <v>43000</v>
-      </c>
-      <c r="K97" s="10">
-        <v>46000</v>
-      </c>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
       <c r="L97" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="12.75" customHeight="1">
       <c r="A98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -4872,15 +4839,15 @@
       <c r="K98" s="10"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="12.75" customHeight="1">
       <c r="A99" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>9</v>
@@ -4902,13 +4869,13 @@
     </row>
     <row r="100" spans="1:13" ht="12.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4925,13 +4892,13 @@
     </row>
     <row r="101" spans="1:13" ht="12.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4949,10 +4916,10 @@
     <row r="102" spans="1:13" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4967,13 +4934,13 @@
     </row>
     <row r="103" spans="1:13" ht="12.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4988,13 +4955,13 @@
     </row>
     <row r="104" spans="1:13" ht="12.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -5006,18 +4973,18 @@
       <c r="K104" s="10"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="12.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -5029,18 +4996,18 @@
       <c r="K105" s="10"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="12.75" customHeight="1">
       <c r="A106" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="C106" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -5052,18 +5019,18 @@
       <c r="K106" s="10"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -5080,13 +5047,13 @@
     </row>
     <row r="108" spans="1:13" ht="12.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -5103,13 +5070,13 @@
     </row>
     <row r="109" spans="1:13" ht="12.75" customHeight="1">
       <c r="A109" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="C109" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -5126,13 +5093,13 @@
     </row>
     <row r="110" spans="1:13" ht="12.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -5144,18 +5111,18 @@
       <c r="K110" s="10"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="12.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -5167,18 +5134,18 @@
       <c r="K111" s="10"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="12.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -5190,18 +5157,18 @@
       <c r="K112" s="10"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="12.75" customHeight="1">
       <c r="A113" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C113" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -5213,18 +5180,18 @@
       <c r="K113" s="10"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="12.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -5236,18 +5203,18 @@
       <c r="K114" s="10"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="12.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -5265,7 +5232,7 @@
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>9</v>
@@ -5282,7 +5249,7 @@
       <c r="K116" s="10"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="12.75" customHeight="1">
@@ -5290,7 +5257,7 @@
         <v>17</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>9</v>
@@ -5307,7 +5274,7 @@
       <c r="K117" s="10"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="12.75" customHeight="1">
@@ -5315,10 +5282,10 @@
         <v>17</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -5330,7 +5297,7 @@
       <c r="K118" s="10"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="12.75" customHeight="1">
@@ -5338,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="5"/>
@@ -5351,18 +5318,18 @@
       <c r="K119" s="10"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="12.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -5374,18 +5341,18 @@
       <c r="K120" s="10"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -5397,15 +5364,15 @@
       <c r="K121" s="10"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="12.75" customHeight="1">
       <c r="A122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>9</v>
@@ -5422,15 +5389,15 @@
       <c r="K122" s="10"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="12.75" customHeight="1">
       <c r="A123" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>9</v>
@@ -5470,7 +5437,7 @@
       <c r="K124" s="10"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="12.75" customHeight="1">
@@ -5478,7 +5445,7 @@
         <v>18</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>9</v>
@@ -5495,7 +5462,7 @@
       <c r="K125" s="10"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="12.75" customHeight="1">
@@ -5520,13 +5487,13 @@
       <c r="K126" s="10"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="12.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>9</v>
@@ -5541,16 +5508,16 @@
       <c r="K127" s="10"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="12.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -5561,120 +5528,100 @@
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
       <c r="L128" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M128" s="3"/>
     </row>
     <row r="129" spans="1:13" ht="12.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="10">
-        <v>14000</v>
-      </c>
-      <c r="H129" s="10">
-        <v>15000</v>
-      </c>
-      <c r="I129" s="10">
-        <v>17000</v>
-      </c>
-      <c r="J129" s="10">
-        <v>29000</v>
-      </c>
-      <c r="K129" s="10">
-        <v>32000</v>
-      </c>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
       <c r="L129" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="12.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D130" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="10">
-        <v>12000</v>
-      </c>
-      <c r="H130" s="10">
-        <v>13000</v>
-      </c>
-      <c r="I130" s="10">
-        <v>16000</v>
-      </c>
-      <c r="J130" s="10">
-        <v>43000</v>
-      </c>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
       <c r="K130" s="10"/>
       <c r="L130" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>416</v>
+        <v>112</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D131" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="10">
-        <v>12000</v>
-      </c>
-      <c r="H131" s="10">
-        <v>13000</v>
-      </c>
-      <c r="I131" s="10">
-        <v>16000</v>
-      </c>
-      <c r="J131" s="10">
-        <v>43000</v>
-      </c>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
       <c r="K131" s="10"/>
       <c r="L131" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="12.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -5686,18 +5633,18 @@
       <c r="K132" s="10"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="12.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -5709,208 +5656,164 @@
       <c r="K133" s="10"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="12.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>152</v>
+        <v>112</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>547</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="D134" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="10">
-        <v>32000</v>
-      </c>
-      <c r="H134" s="10">
-        <v>34500</v>
-      </c>
-      <c r="I134" s="10">
-        <v>42000</v>
-      </c>
-      <c r="J134" s="10">
-        <v>109500</v>
-      </c>
-      <c r="K134" s="10">
-        <v>0</v>
-      </c>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="12.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D135" s="5"/>
+      <c r="D135" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="10">
-        <v>32000</v>
-      </c>
-      <c r="H135" s="10">
-        <v>34500</v>
-      </c>
-      <c r="I135" s="10">
-        <v>42000</v>
-      </c>
-      <c r="J135" s="10">
-        <v>109500</v>
-      </c>
-      <c r="K135" s="10">
-        <v>0</v>
-      </c>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="12.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D136" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="10">
-        <v>14000</v>
-      </c>
-      <c r="H136" s="10">
-        <v>15000</v>
-      </c>
-      <c r="I136" s="10">
-        <v>18000</v>
-      </c>
-      <c r="J136" s="10">
-        <v>45000</v>
-      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
       <c r="K136" s="10"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="12.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D137" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="10">
-        <v>14000</v>
-      </c>
-      <c r="H137" s="10">
-        <v>15000</v>
-      </c>
-      <c r="I137" s="10">
-        <v>18000</v>
-      </c>
-      <c r="J137" s="10">
-        <v>45000</v>
-      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
       <c r="K137" s="10"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="12.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D138" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="10">
-        <v>24000</v>
-      </c>
-      <c r="H138" s="10">
-        <v>26000</v>
-      </c>
-      <c r="I138" s="10">
-        <v>31000</v>
-      </c>
-      <c r="J138" s="10">
-        <v>80000</v>
-      </c>
-      <c r="K138" s="10">
-        <v>0</v>
-      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="1:13" ht="12.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D139" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="10">
-        <v>26000</v>
-      </c>
-      <c r="H139" s="10">
-        <v>28000</v>
-      </c>
-      <c r="I139" s="10">
-        <v>33000</v>
-      </c>
-      <c r="J139" s="10">
-        <v>82000</v>
-      </c>
-      <c r="K139" s="10">
-        <v>0</v>
-      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="1:13" ht="12.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -5922,18 +5825,18 @@
       <c r="K140" s="10"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="12.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -5945,155 +5848,123 @@
       <c r="K141" s="10"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="12.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D142" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H142" s="10">
-        <v>11000</v>
-      </c>
-      <c r="I142" s="10">
-        <v>13000</v>
-      </c>
-      <c r="J142" s="10">
-        <v>25000</v>
-      </c>
-      <c r="K142" s="10">
-        <v>28000</v>
-      </c>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
       <c r="L142" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="12.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D143" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H143" s="10">
-        <v>11000</v>
-      </c>
-      <c r="I143" s="10">
-        <v>13000</v>
-      </c>
-      <c r="J143" s="10">
-        <v>25000</v>
-      </c>
-      <c r="K143" s="10">
-        <v>28000</v>
-      </c>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
       <c r="L143" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="12.75" customHeight="1">
       <c r="A144" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="C144" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D144" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="10">
-        <v>12000</v>
-      </c>
-      <c r="H144" s="10">
-        <v>13000</v>
-      </c>
-      <c r="I144" s="10">
-        <v>15000</v>
-      </c>
-      <c r="J144" s="10">
-        <v>27000</v>
-      </c>
-      <c r="K144" s="10">
-        <v>30000</v>
-      </c>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
       <c r="L144" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="12.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D145" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="10">
-        <v>12000</v>
-      </c>
-      <c r="H145" s="10">
-        <v>13000</v>
-      </c>
-      <c r="I145" s="10">
-        <v>15000</v>
-      </c>
-      <c r="J145" s="10">
-        <v>27000</v>
-      </c>
-      <c r="K145" s="10">
-        <v>30000</v>
-      </c>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
       <c r="L145" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="12.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>42</v>
@@ -6117,7 +5988,7 @@
         <v>81000</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M146" s="3" t="s">
         <v>77</v>
@@ -6125,10 +5996,10 @@
     </row>
     <row r="147" spans="1:13" ht="12.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>42</v>
@@ -6152,7 +6023,7 @@
         <v>81000</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>77</v>
@@ -6160,13 +6031,13 @@
     </row>
     <row r="148" spans="1:13" ht="12.75" customHeight="1">
       <c r="A148" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="C148" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -6178,18 +6049,18 @@
       <c r="K148" s="10"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="12.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -6201,18 +6072,18 @@
       <c r="K149" s="10"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="12.75" customHeight="1">
       <c r="A150" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="C150" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -6224,18 +6095,18 @@
       <c r="K150" s="10"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="12.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -6247,7 +6118,7 @@
       <c r="K151" s="10"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="12.75" customHeight="1">
@@ -6255,29 +6126,21 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D152" s="5"/>
+      <c r="D152" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="10">
-        <v>57000</v>
-      </c>
-      <c r="H152" s="10">
-        <v>62000</v>
-      </c>
-      <c r="I152" s="10">
-        <v>76000</v>
-      </c>
-      <c r="J152" s="10">
-        <v>198000</v>
-      </c>
-      <c r="K152" s="10">
-        <v>0</v>
-      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
@@ -6303,7 +6166,7 @@
       <c r="K153" s="10"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="12.75" customHeight="1">
@@ -6311,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>9</v>
@@ -6328,7 +6191,7 @@
       <c r="K154" s="10"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="12.75" customHeight="1">
@@ -6353,7 +6216,7 @@
       <c r="K155" s="10"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="12.75" customHeight="1">
@@ -6361,7 +6224,7 @@
         <v>8</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>9</v>
@@ -6378,7 +6241,7 @@
       <c r="K156" s="10"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="12.75" customHeight="1">
@@ -6386,13 +6249,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -6403,7 +6266,7 @@
       <c r="K157" s="10"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="12.75" customHeight="1">
@@ -6411,13 +6274,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
@@ -6428,7 +6291,7 @@
       <c r="K158" s="10"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="12.75" customHeight="1">
@@ -6436,32 +6299,24 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D159" s="5"/>
+      <c r="D159" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="10">
-        <v>37000</v>
-      </c>
-      <c r="H159" s="10">
-        <v>39500</v>
-      </c>
-      <c r="I159" s="10">
-        <v>47000</v>
-      </c>
-      <c r="J159" s="10">
-        <v>114500</v>
-      </c>
-      <c r="K159" s="10">
-        <v>0</v>
-      </c>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="12.75" customHeight="1">
@@ -6469,29 +6324,21 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D160" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="10">
-        <v>73000</v>
-      </c>
-      <c r="H160" s="10">
-        <v>78000</v>
-      </c>
-      <c r="I160" s="10">
-        <v>93000</v>
-      </c>
-      <c r="J160" s="10">
-        <v>228000</v>
-      </c>
-      <c r="K160" s="10">
-        <v>0</v>
-      </c>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
     </row>
@@ -6500,38 +6347,26 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G161" s="13">
-        <v>21000</v>
-      </c>
-      <c r="H161" s="13">
-        <v>23000</v>
-      </c>
-      <c r="I161" s="13">
-        <v>27000</v>
-      </c>
-      <c r="J161" s="13">
-        <v>41000</v>
-      </c>
-      <c r="K161" s="13">
-        <v>45000</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
       <c r="L161" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="12.75" customHeight="1">
@@ -6539,49 +6374,37 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G162" s="13">
-        <v>21000</v>
-      </c>
-      <c r="H162" s="13">
-        <v>23000</v>
-      </c>
-      <c r="I162" s="13">
-        <v>27000</v>
-      </c>
-      <c r="J162" s="13">
-        <v>41000</v>
-      </c>
-      <c r="K162" s="13">
-        <v>45000</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
       <c r="L162" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="C163" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6593,18 +6416,18 @@
       <c r="K163" s="10"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -6616,18 +6439,18 @@
       <c r="K164" s="10"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="12.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -6639,18 +6462,18 @@
       <c r="K165" s="10"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="12.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -6662,18 +6485,18 @@
       <c r="K166" s="10"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6685,18 +6508,18 @@
       <c r="K167" s="10"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="12.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6708,18 +6531,18 @@
       <c r="K168" s="10"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="12.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6731,18 +6554,18 @@
       <c r="K169" s="10"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="12.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -6754,18 +6577,18 @@
       <c r="K170" s="10"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="12.75" customHeight="1">
       <c r="A171" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B171" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="C171" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -6777,18 +6600,18 @@
       <c r="K171" s="10"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -6800,15 +6623,15 @@
       <c r="K172" s="10"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="12.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>9</v>
@@ -6828,10 +6651,10 @@
     </row>
     <row r="174" spans="1:13" ht="12.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="5"/>
@@ -6849,13 +6672,13 @@
     </row>
     <row r="175" spans="1:13" ht="12.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -6872,10 +6695,10 @@
     </row>
     <row r="176" spans="1:13" ht="12.75" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>9</v>
@@ -6895,10 +6718,10 @@
     </row>
     <row r="177" spans="1:13" ht="12.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>9</v>
@@ -6918,10 +6741,10 @@
     </row>
     <row r="178" spans="1:13" ht="12.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="5"/>
@@ -6937,13 +6760,13 @@
     </row>
     <row r="179" spans="1:13" ht="12.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -6960,13 +6783,13 @@
     </row>
     <row r="180" spans="1:13" ht="12.75" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -6983,10 +6806,10 @@
     </row>
     <row r="181" spans="1:13" ht="12.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>9</v>
@@ -7006,10 +6829,10 @@
     </row>
     <row r="182" spans="1:13" ht="12.75" customHeight="1">
       <c r="A182" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>9</v>
@@ -7056,13 +6879,13 @@
     </row>
     <row r="184" spans="1:13" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -7074,18 +6897,18 @@
       <c r="K184" s="10"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="12.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -7097,16 +6920,16 @@
       <c r="K185" s="10"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="12.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -7122,10 +6945,10 @@
     <row r="187" spans="1:13" ht="12.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -7160,7 +6983,7 @@
       <c r="K188" s="10"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="12.75" customHeight="1">
@@ -7168,32 +6991,24 @@
         <v>59</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D189" s="5"/>
+      <c r="D189" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="10">
-        <v>80000</v>
-      </c>
-      <c r="H189" s="10">
-        <v>85000</v>
-      </c>
-      <c r="I189" s="10">
-        <v>99000</v>
-      </c>
-      <c r="J189" s="10">
-        <v>221000</v>
-      </c>
-      <c r="K189" s="10">
-        <v>0</v>
-      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="12.75" customHeight="1">
@@ -7201,7 +7016,7 @@
         <v>59</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>42</v>
@@ -7218,7 +7033,7 @@
       <c r="K190" s="10"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="12.75" customHeight="1">
@@ -7226,32 +7041,24 @@
         <v>59</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D191" s="5"/>
+      <c r="D191" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="10">
-        <v>80000</v>
-      </c>
-      <c r="H191" s="10">
-        <v>85000</v>
-      </c>
-      <c r="I191" s="10">
-        <v>99000</v>
-      </c>
-      <c r="J191" s="10">
-        <v>221000</v>
-      </c>
-      <c r="K191" s="10">
-        <v>0</v>
-      </c>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="12.75" customHeight="1">
@@ -7276,7 +7083,7 @@
       <c r="K192" s="10"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="12.75" customHeight="1">
@@ -7301,15 +7108,15 @@
       <c r="K193" s="10"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="12.75" customHeight="1">
       <c r="A194" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>9</v>
@@ -7326,15 +7133,15 @@
       <c r="K194" s="10"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="12.75" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>9</v>
@@ -7351,84 +7158,68 @@
       <c r="K195" s="10"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="12.75" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D196" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H196" s="10">
-        <v>16000</v>
-      </c>
-      <c r="I196" s="10">
-        <v>18000</v>
-      </c>
-      <c r="J196" s="10">
-        <v>30000</v>
-      </c>
-      <c r="K196" s="10">
-        <v>33000</v>
-      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="12.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D197" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H197" s="10">
-        <v>16000</v>
-      </c>
-      <c r="I197" s="10">
-        <v>18000</v>
-      </c>
-      <c r="J197" s="10">
-        <v>30000</v>
-      </c>
-      <c r="K197" s="10">
-        <v>33000</v>
-      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="12.75" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -7440,48 +7231,40 @@
       <c r="K198" s="10"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="12.75" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D199" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="10">
-        <v>24000</v>
-      </c>
-      <c r="H199" s="10">
-        <v>25000</v>
-      </c>
-      <c r="I199" s="10">
-        <v>27000</v>
-      </c>
-      <c r="J199" s="10">
-        <v>39000</v>
-      </c>
-      <c r="K199" s="10">
-        <v>42000</v>
-      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="12.75" customHeight="1">
       <c r="A200" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>9</v>
@@ -7497,14 +7280,14 @@
       <c r="J200" s="10"/>
       <c r="K200" s="10"/>
       <c r="L200" s="3"/>
-      <c r="M200" s="14"/>
+      <c r="M200" s="13"/>
     </row>
     <row r="201" spans="1:13" ht="12.75" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>9</v>
@@ -7527,7 +7310,7 @@
         <v>23</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>9</v>
@@ -7547,16 +7330,16 @@
     </row>
     <row r="203" spans="1:13" ht="12.75" customHeight="1">
       <c r="A203" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -7570,16 +7353,16 @@
     </row>
     <row r="204" spans="1:13" ht="12.75" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -7593,16 +7376,16 @@
     </row>
     <row r="205" spans="1:13" ht="12.75" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B205" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D205" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -7636,7 +7419,7 @@
       <c r="K206" s="10"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="12.75" customHeight="1">
@@ -7661,7 +7444,7 @@
       <c r="K207" s="10"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="12.75" customHeight="1">
@@ -7686,7 +7469,7 @@
       <c r="K208" s="10"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="12.75" customHeight="1">
@@ -7711,7 +7494,7 @@
       <c r="K209" s="10"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="12.75" customHeight="1">
@@ -7736,15 +7519,15 @@
       <c r="K210" s="10"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="12.75" customHeight="1">
       <c r="A211" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>9</v>
@@ -7761,15 +7544,15 @@
       <c r="K211" s="10"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="12.75" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>9</v>
@@ -7786,15 +7569,15 @@
       <c r="K212" s="10"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="12.75" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>9</v>
@@ -7809,15 +7592,15 @@
       <c r="K213" s="10"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="12.75" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>42</v>
@@ -7832,18 +7615,18 @@
       <c r="K214" s="10"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="12.75" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -7855,15 +7638,15 @@
       <c r="K215" s="10"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="12.75" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>9</v>
@@ -7878,15 +7661,15 @@
       <c r="K216" s="10"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="12.75" customHeight="1">
       <c r="A217" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>9</v>
@@ -7903,15 +7686,15 @@
       <c r="K217" s="10"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="12.75" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>9</v>
@@ -7928,15 +7711,15 @@
       <c r="K218" s="10"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="12.75" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>9</v>
@@ -7953,7 +7736,7 @@
       <c r="K219" s="10"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="12.75" customHeight="1">
@@ -7981,10 +7764,10 @@
     </row>
     <row r="221" spans="1:13" ht="12.75" customHeight="1">
       <c r="A221" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>9</v>
@@ -8004,10 +7787,10 @@
     </row>
     <row r="222" spans="1:13" ht="12.75" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>9</v>
@@ -8030,29 +7813,21 @@
         <v>28</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D223" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="10">
-        <v>24000</v>
-      </c>
-      <c r="H223" s="10">
-        <v>26000</v>
-      </c>
-      <c r="I223" s="10">
-        <v>31000</v>
-      </c>
-      <c r="J223" s="10">
-        <v>80000</v>
-      </c>
-      <c r="K223" s="10">
-        <v>0</v>
-      </c>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
     </row>
@@ -8061,122 +7836,90 @@
         <v>28</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D224" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
-      <c r="G224" s="10">
-        <v>26000</v>
-      </c>
-      <c r="H224" s="10">
-        <v>28000</v>
-      </c>
-      <c r="I224" s="10">
-        <v>33000</v>
-      </c>
-      <c r="J224" s="10">
-        <v>82000</v>
-      </c>
-      <c r="K224" s="10">
-        <v>0</v>
-      </c>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
     </row>
     <row r="225" spans="1:13" ht="12.75" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D225" s="5"/>
+      <c r="D225" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
-      <c r="G225" s="10">
-        <v>28000</v>
-      </c>
-      <c r="H225" s="10">
-        <v>29000</v>
-      </c>
-      <c r="I225" s="10">
-        <v>34000</v>
-      </c>
-      <c r="J225" s="10">
-        <v>82000</v>
-      </c>
-      <c r="K225" s="10">
-        <v>0</v>
-      </c>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
     </row>
     <row r="226" spans="1:13" ht="12.75" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D226" s="5"/>
+      <c r="D226" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
-      <c r="G226" s="10">
-        <v>31000</v>
-      </c>
-      <c r="H226" s="10">
-        <v>32000</v>
-      </c>
-      <c r="I226" s="10">
-        <v>37000</v>
-      </c>
-      <c r="J226" s="10">
-        <v>85000</v>
-      </c>
-      <c r="K226" s="10">
-        <v>0</v>
-      </c>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
     </row>
     <row r="227" spans="1:13" ht="12.75" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D227" s="5"/>
+      <c r="D227" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
-      <c r="G227" s="10">
-        <v>33000</v>
-      </c>
-      <c r="H227" s="10">
-        <v>34000</v>
-      </c>
-      <c r="I227" s="10">
-        <v>39000</v>
-      </c>
-      <c r="J227" s="10">
-        <v>87000</v>
-      </c>
-      <c r="K227" s="10">
-        <v>0</v>
-      </c>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
     </row>
@@ -8202,7 +7945,7 @@
       <c r="K228" s="10"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="12.75" customHeight="1">
@@ -8210,7 +7953,7 @@
         <v>30</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>9</v>
@@ -8227,7 +7970,7 @@
       <c r="K229" s="10"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="12.75" customHeight="1">
@@ -8252,7 +7995,7 @@
       <c r="K230" s="10"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="12.75" customHeight="1">
@@ -8260,7 +8003,7 @@
         <v>30</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>42</v>
@@ -8277,7 +8020,7 @@
       <c r="K231" s="10"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="12.75" customHeight="1">
@@ -8302,18 +8045,18 @@
       <c r="K232" s="10"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="12.75" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -8325,7 +8068,7 @@
       <c r="K233" s="10"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="12.75" customHeight="1">
@@ -8333,7 +8076,7 @@
         <v>34</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>9</v>
@@ -8358,7 +8101,7 @@
         <v>34</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>9</v>
@@ -8408,7 +8151,7 @@
         <v>34</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>42</v>
@@ -8430,13 +8173,13 @@
     </row>
     <row r="238" spans="1:13" ht="12.75" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -8448,18 +8191,18 @@
       <c r="K238" s="10"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="12.75" customHeight="1">
       <c r="A239" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="C239" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -8471,18 +8214,18 @@
       <c r="K239" s="10"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="12.75" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -8494,18 +8237,18 @@
       <c r="K240" s="10"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="12.75" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -8517,18 +8260,18 @@
       <c r="K241" s="10"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="12.75" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -8540,18 +8283,18 @@
       <c r="K242" s="10"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="12.75" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -8563,18 +8306,18 @@
       <c r="K243" s="10"/>
       <c r="L243" s="3"/>
       <c r="M243" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="12.75" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -8586,18 +8329,18 @@
       <c r="K244" s="10"/>
       <c r="L244" s="3"/>
       <c r="M244" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="12.75" customHeight="1">
       <c r="A245" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="C245" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -8609,15 +8352,15 @@
       <c r="K245" s="10"/>
       <c r="L245" s="3"/>
       <c r="M245" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="12.75" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>9</v>
@@ -8634,15 +8377,15 @@
       <c r="K246" s="10"/>
       <c r="L246" s="3"/>
       <c r="M246" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="12.75" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>9</v>
@@ -8659,18 +8402,18 @@
       <c r="K247" s="10"/>
       <c r="L247" s="3"/>
       <c r="M247" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="12.75" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -8682,18 +8425,18 @@
       <c r="K248" s="10"/>
       <c r="L248" s="3"/>
       <c r="M248" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="12.75" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -8705,15 +8448,15 @@
       <c r="K249" s="10"/>
       <c r="L249" s="3"/>
       <c r="M249" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="12.75" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>9</v>
@@ -8730,15 +8473,15 @@
       <c r="K250" s="10"/>
       <c r="L250" s="3"/>
       <c r="M250" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="12.75" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>9</v>
@@ -8755,16 +8498,16 @@
       <c r="K251" s="10"/>
       <c r="L251" s="3"/>
       <c r="M251" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="12.75" customHeight="1">
       <c r="A252" s="3"/>
       <c r="B252" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -8776,15 +8519,15 @@
       <c r="K252" s="10"/>
       <c r="L252" s="3"/>
       <c r="M252" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="12.75" customHeight="1">
       <c r="A253" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>9</v>
@@ -8801,15 +8544,15 @@
       <c r="K253" s="10"/>
       <c r="L253" s="3"/>
       <c r="M253" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="12.75" customHeight="1">
       <c r="A254" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>9</v>
@@ -8826,77 +8569,61 @@
       <c r="K254" s="10"/>
       <c r="L254" s="3"/>
       <c r="M254" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="12.75" customHeight="1">
       <c r="A255" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D255" s="5"/>
+      <c r="D255" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
-      <c r="G255" s="10">
-        <v>37000</v>
-      </c>
-      <c r="H255" s="10">
-        <v>39000</v>
-      </c>
-      <c r="I255" s="10">
-        <v>45000</v>
-      </c>
-      <c r="J255" s="10">
-        <v>99000</v>
-      </c>
-      <c r="K255" s="10">
-        <v>0</v>
-      </c>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
       <c r="L255" s="3"/>
       <c r="M255" s="3"/>
     </row>
     <row r="256" spans="1:13" ht="12.75" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D256" s="5"/>
+      <c r="D256" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
-      <c r="G256" s="10">
-        <v>40000</v>
-      </c>
-      <c r="H256" s="10">
-        <v>42000</v>
-      </c>
-      <c r="I256" s="10">
-        <v>48000</v>
-      </c>
-      <c r="J256" s="10">
-        <v>102000</v>
-      </c>
-      <c r="K256" s="10">
-        <v>0</v>
-      </c>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3"/>
     </row>
     <row r="257" spans="1:13" ht="12.75" customHeight="1">
       <c r="A257" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>9</v>
@@ -8913,15 +8640,15 @@
       <c r="K257" s="10"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="12.75" customHeight="1">
       <c r="A258" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>9</v>
@@ -8938,15 +8665,15 @@
       <c r="K258" s="10"/>
       <c r="L258" s="3"/>
       <c r="M258" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="12.75" customHeight="1">
       <c r="A259" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>9</v>
@@ -8963,15 +8690,15 @@
       <c r="K259" s="10"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="12.75" customHeight="1">
       <c r="A260" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>9</v>
@@ -8988,15 +8715,15 @@
       <c r="K260" s="10"/>
       <c r="L260" s="3"/>
       <c r="M260" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="12.75" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>9</v>
@@ -9013,18 +8740,18 @@
       <c r="K261" s="10"/>
       <c r="L261" s="3"/>
       <c r="M261" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="12.75" customHeight="1">
       <c r="A262" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -9039,13 +8766,13 @@
     </row>
     <row r="263" spans="1:13" ht="12.75" customHeight="1">
       <c r="A263" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -9062,13 +8789,13 @@
     </row>
     <row r="264" spans="1:13" ht="12.75" customHeight="1">
       <c r="A264" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -9085,13 +8812,13 @@
     </row>
     <row r="265" spans="1:13" ht="12.75" customHeight="1">
       <c r="A265" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -9108,13 +8835,13 @@
     </row>
     <row r="266" spans="1:13" ht="12.75" customHeight="1">
       <c r="A266" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -9131,13 +8858,13 @@
     </row>
     <row r="267" spans="1:13" ht="12.75" customHeight="1">
       <c r="A267" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -9154,13 +8881,13 @@
     </row>
     <row r="268" spans="1:13" ht="12.75" customHeight="1">
       <c r="A268" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -9177,13 +8904,13 @@
     </row>
     <row r="269" spans="1:13" ht="12.75" customHeight="1">
       <c r="A269" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -9195,21 +8922,21 @@
       <c r="K269" s="10"/>
       <c r="L269" s="3"/>
       <c r="M269" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="12.75" customHeight="1">
       <c r="A270" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
@@ -9220,21 +8947,21 @@
       <c r="K270" s="10"/>
       <c r="L270" s="3"/>
       <c r="M270" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="12.75" customHeight="1">
       <c r="A271" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
@@ -9245,7 +8972,7 @@
       <c r="K271" s="10"/>
       <c r="L271" s="3"/>
       <c r="M271" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="12.75" customHeight="1">
@@ -9253,10 +8980,10 @@
         <v>67</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -9268,7 +8995,7 @@
       <c r="K272" s="10"/>
       <c r="L272" s="3"/>
       <c r="M272" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="12.75" customHeight="1">
@@ -9276,7 +9003,7 @@
         <v>67</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>42</v>
@@ -9293,7 +9020,7 @@
       <c r="K273" s="10"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="12.75" customHeight="1">
@@ -9301,7 +9028,7 @@
         <v>67</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>42</v>
@@ -9318,7 +9045,7 @@
       <c r="K274" s="10"/>
       <c r="L274" s="3"/>
       <c r="M274" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="12.75" customHeight="1">
@@ -9326,10 +9053,10 @@
         <v>67</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -9341,7 +9068,7 @@
       <c r="K275" s="10"/>
       <c r="L275" s="3"/>
       <c r="M275" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="12.75" customHeight="1">
@@ -9349,34 +9076,26 @@
         <v>68</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D276" s="5"/>
+      <c r="D276" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
-      <c r="G276" s="10">
-        <v>42000</v>
-      </c>
-      <c r="H276" s="10">
-        <v>46000</v>
-      </c>
-      <c r="I276" s="10">
-        <v>50000</v>
-      </c>
-      <c r="J276" s="10">
-        <v>77000</v>
-      </c>
-      <c r="K276" s="10">
-        <v>87000</v>
-      </c>
+      <c r="G276" s="10"/>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="10"/>
+      <c r="K276" s="10"/>
       <c r="L276" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="12.75" customHeight="1">
@@ -9384,34 +9103,26 @@
         <v>68</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D277" s="5"/>
+      <c r="D277" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
-      <c r="G277" s="10">
-        <v>42000</v>
-      </c>
-      <c r="H277" s="10">
-        <v>46000</v>
-      </c>
-      <c r="I277" s="10">
-        <v>50000</v>
-      </c>
-      <c r="J277" s="10">
-        <v>77000</v>
-      </c>
-      <c r="K277" s="10">
-        <v>87000</v>
-      </c>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
       <c r="L277" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:13" ht="12.75" customHeight="1">
@@ -9419,34 +9130,24 @@
         <v>68</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D278" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
-      <c r="G278" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H278" s="10">
-        <v>16000</v>
-      </c>
-      <c r="I278" s="10">
-        <v>18000</v>
-      </c>
-      <c r="J278" s="10">
-        <v>30000</v>
-      </c>
-      <c r="K278" s="10">
-        <v>33000</v>
-      </c>
-      <c r="L278" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="G278" s="10"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="10"/>
+      <c r="K278" s="10"/>
+      <c r="L278" s="3"/>
       <c r="M278" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="12.75" customHeight="1">
@@ -9454,7 +9155,7 @@
         <v>68</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>9</v>
@@ -9471,7 +9172,7 @@
       <c r="K279" s="10"/>
       <c r="L279" s="3"/>
       <c r="M279" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="12.75" customHeight="1">
@@ -9479,7 +9180,7 @@
         <v>68</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>42</v>
@@ -9496,7 +9197,7 @@
       <c r="K280" s="10"/>
       <c r="L280" s="3"/>
       <c r="M280" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="12.75" customHeight="1">
@@ -9504,7 +9205,7 @@
         <v>68</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>42</v>
@@ -9521,7 +9222,7 @@
       <c r="K281" s="10"/>
       <c r="L281" s="3"/>
       <c r="M281" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="12.75" customHeight="1">
@@ -9529,30 +9230,26 @@
         <v>68</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D282" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
-      <c r="G282" s="10">
-        <v>13000</v>
-      </c>
-      <c r="H282" s="10">
-        <v>14000</v>
-      </c>
-      <c r="I282" s="10">
-        <v>16000</v>
-      </c>
+      <c r="G282" s="10"/>
+      <c r="H282" s="10"/>
+      <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10"/>
       <c r="L282" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="12.75" customHeight="1">
@@ -9560,30 +9257,26 @@
         <v>68</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>431</v>
+        <v>549</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D283" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
-      <c r="G283" s="10">
-        <v>13000</v>
-      </c>
-      <c r="H283" s="10">
-        <v>14000</v>
-      </c>
-      <c r="I283" s="10">
-        <v>16000</v>
-      </c>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
+      <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="10"/>
       <c r="L283" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M283" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="284" spans="1:13" ht="12.75" customHeight="1">
@@ -9591,34 +9284,26 @@
         <v>68</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D284" s="5"/>
+      <c r="D284" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
-      <c r="G284" s="10">
-        <v>38000</v>
-      </c>
-      <c r="H284" s="10">
-        <v>42000</v>
-      </c>
-      <c r="I284" s="10">
-        <v>46000</v>
-      </c>
-      <c r="J284" s="10">
-        <v>73000</v>
-      </c>
-      <c r="K284" s="10">
-        <v>83000</v>
-      </c>
+      <c r="G284" s="10"/>
+      <c r="H284" s="10"/>
+      <c r="I284" s="10"/>
+      <c r="J284" s="10"/>
+      <c r="K284" s="10"/>
       <c r="L284" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M284" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="12.75" customHeight="1">
@@ -9626,45 +9311,37 @@
         <v>68</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D285" s="5"/>
+      <c r="D285" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
-      <c r="G285" s="10">
-        <v>38000</v>
-      </c>
-      <c r="H285" s="10">
-        <v>42000</v>
-      </c>
-      <c r="I285" s="10">
-        <v>46000</v>
-      </c>
-      <c r="J285" s="10">
-        <v>73000</v>
-      </c>
-      <c r="K285" s="10">
-        <v>83000</v>
-      </c>
+      <c r="G285" s="10"/>
+      <c r="H285" s="10"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="10"/>
+      <c r="K285" s="10"/>
       <c r="L285" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="12.75" customHeight="1">
       <c r="A286" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -9676,7 +9353,7 @@
       <c r="K286" s="10"/>
       <c r="L286" s="3"/>
       <c r="M286" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="12.75" customHeight="1">
@@ -9701,7 +9378,7 @@
       <c r="K287" s="10"/>
       <c r="L287" s="3"/>
       <c r="M287" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="12.75" customHeight="1">
@@ -9709,34 +9386,26 @@
         <v>35</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D288" s="5"/>
+      <c r="D288" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
-      <c r="G288" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H288" s="10">
-        <v>17000</v>
-      </c>
-      <c r="I288" s="10">
-        <v>21000</v>
-      </c>
-      <c r="J288" s="10">
-        <v>35000</v>
-      </c>
-      <c r="K288" s="10">
-        <v>39000</v>
-      </c>
+      <c r="G288" s="10"/>
+      <c r="H288" s="10"/>
+      <c r="I288" s="10"/>
+      <c r="J288" s="10"/>
+      <c r="K288" s="10"/>
       <c r="L288" s="3" t="s">
-        <v>355</v>
+        <v>550</v>
       </c>
       <c r="M288" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="12.75" customHeight="1">
@@ -9744,32 +9413,24 @@
         <v>35</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D289" s="5"/>
+      <c r="D289" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
-      <c r="G289" s="10">
-        <v>13000</v>
-      </c>
-      <c r="H289" s="10">
-        <v>14000</v>
-      </c>
-      <c r="I289" s="10">
-        <v>16000</v>
-      </c>
-      <c r="J289" s="10">
-        <v>28000</v>
-      </c>
-      <c r="K289" s="10">
-        <v>31000</v>
-      </c>
+      <c r="G289" s="10"/>
+      <c r="H289" s="10"/>
+      <c r="I289" s="10"/>
+      <c r="J289" s="10"/>
+      <c r="K289" s="10"/>
       <c r="L289" s="3"/>
       <c r="M289" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="12.75" customHeight="1">
@@ -9777,7 +9438,7 @@
         <v>37</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>9</v>
@@ -9794,7 +9455,7 @@
       <c r="K290" s="10"/>
       <c r="L290" s="3"/>
       <c r="M290" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="12.75" customHeight="1">
@@ -9802,7 +9463,7 @@
         <v>37</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>9</v>
@@ -9819,15 +9480,15 @@
       <c r="K291" s="10"/>
       <c r="L291" s="3"/>
       <c r="M291" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="12.75" customHeight="1">
       <c r="A292" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>9</v>
@@ -9844,15 +9505,15 @@
       <c r="K292" s="10"/>
       <c r="L292" s="3"/>
       <c r="M292" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="12.75" customHeight="1">
       <c r="A293" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>9</v>
@@ -9869,7 +9530,7 @@
       <c r="K293" s="10"/>
       <c r="L293" s="3"/>
       <c r="M293" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="12.75" customHeight="1">
@@ -9900,7 +9561,7 @@
         <v>69</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>42</v>
@@ -9923,7 +9584,7 @@
         <v>69</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>42</v>
@@ -9969,7 +9630,7 @@
         <v>37</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>9</v>
@@ -10015,7 +9676,7 @@
         <v>37</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>9</v>
@@ -10032,18 +9693,18 @@
       <c r="K300" s="10"/>
       <c r="L300" s="3"/>
       <c r="M300" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="12.75" customHeight="1">
       <c r="A301" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -10055,18 +9716,18 @@
       <c r="K301" s="10"/>
       <c r="L301" s="3"/>
       <c r="M301" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="12.75" customHeight="1">
       <c r="A302" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -10078,18 +9739,18 @@
       <c r="K302" s="10"/>
       <c r="L302" s="3"/>
       <c r="M302" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="12.75" customHeight="1">
       <c r="A303" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B303" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B303" s="11" t="s">
-        <v>329</v>
-      </c>
       <c r="C303" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -10101,7 +9762,7 @@
       <c r="K303" s="10"/>
       <c r="L303" s="3"/>
       <c r="M303" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="12.75" customHeight="1">
@@ -10109,7 +9770,7 @@
         <v>71</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>9</v>
@@ -10126,7 +9787,7 @@
       <c r="K304" s="10"/>
       <c r="L304" s="3"/>
       <c r="M304" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="12.75" customHeight="1">
@@ -10134,7 +9795,7 @@
         <v>71</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>42</v>
@@ -10151,7 +9812,7 @@
       <c r="K305" s="10"/>
       <c r="L305" s="3"/>
       <c r="M305" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="306" spans="1:13" ht="12.75" customHeight="1">
@@ -10159,7 +9820,7 @@
         <v>71</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>42</v>
@@ -10176,7 +9837,7 @@
       <c r="K306" s="10"/>
       <c r="L306" s="3"/>
       <c r="M306" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="307" spans="1:13" ht="12.75" customHeight="1">
@@ -10201,7 +9862,7 @@
       <c r="K307" s="10"/>
       <c r="L307" s="3"/>
       <c r="M307" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="12.75" customHeight="1">
@@ -10209,7 +9870,7 @@
         <v>71</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>42</v>
@@ -10226,15 +9887,15 @@
       <c r="K308" s="10"/>
       <c r="L308" s="3"/>
       <c r="M308" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="12.75" customHeight="1">
       <c r="A309" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>9</v>
@@ -10251,21 +9912,21 @@
       <c r="K309" s="10"/>
       <c r="L309" s="3"/>
       <c r="M309" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="12.75" customHeight="1">
       <c r="A310" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
@@ -10276,15 +9937,15 @@
       <c r="K310" s="10"/>
       <c r="L310" s="3"/>
       <c r="M310" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="311" spans="1:13" ht="12.75" customHeight="1">
       <c r="A311" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>9</v>
@@ -10301,7 +9962,7 @@
       <c r="K311" s="10"/>
       <c r="L311" s="3"/>
       <c r="M311" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="12.75" customHeight="1">
@@ -10309,7 +9970,7 @@
         <v>71</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>9</v>
@@ -10326,18 +9987,18 @@
       <c r="K312" s="10"/>
       <c r="L312" s="3"/>
       <c r="M312" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="12.75" customHeight="1">
       <c r="A313" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -10349,53 +10010,45 @@
       <c r="K313" s="10"/>
       <c r="L313" s="3"/>
       <c r="M313" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="314" spans="1:13" ht="12.75" customHeight="1">
       <c r="A314" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D314" s="5"/>
+      <c r="D314" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
-      <c r="G314" s="10">
-        <v>15000</v>
-      </c>
-      <c r="H314" s="10">
-        <v>17000</v>
-      </c>
-      <c r="I314" s="10">
-        <v>21000</v>
-      </c>
-      <c r="J314" s="10">
-        <v>35000</v>
-      </c>
-      <c r="K314" s="10">
-        <v>39000</v>
-      </c>
+      <c r="G314" s="10"/>
+      <c r="H314" s="10"/>
+      <c r="I314" s="10"/>
+      <c r="J314" s="10"/>
+      <c r="K314" s="10"/>
       <c r="L314" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M314" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="12.75" customHeight="1">
       <c r="A315" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -10407,18 +10060,18 @@
       <c r="K315" s="10"/>
       <c r="L315" s="3"/>
       <c r="M315" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="12.75" customHeight="1">
       <c r="A316" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -10430,18 +10083,18 @@
       <c r="K316" s="10"/>
       <c r="L316" s="3"/>
       <c r="M316" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="12.75" customHeight="1">
       <c r="A317" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -10453,16 +10106,16 @@
       <c r="K317" s="10"/>
       <c r="L317" s="3"/>
       <c r="M317" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="318" spans="1:13" ht="12.75" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -10478,10 +10131,10 @@
     <row r="319" spans="1:13" ht="12.75" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -10497,10 +10150,10 @@
     <row r="320" spans="1:13" ht="12.75" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -10516,10 +10169,10 @@
     <row r="321" spans="1:13" ht="12.75" customHeight="1">
       <c r="A321" s="3"/>
       <c r="B321" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -10537,7 +10190,7 @@
         <v>38</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>9</v>
@@ -10562,7 +10215,7 @@
         <v>38</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>9</v>
@@ -10587,7 +10240,7 @@
         <v>38</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>9</v>
@@ -10609,10 +10262,10 @@
     </row>
     <row r="325" spans="1:13" ht="12.75" customHeight="1">
       <c r="A325" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>9</v>
@@ -10627,7 +10280,7 @@
       <c r="K325" s="10"/>
       <c r="L325" s="3"/>
       <c r="M325" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="12.75" customHeight="1">
@@ -10652,7 +10305,7 @@
       <c r="K326" s="10"/>
       <c r="L326" s="3"/>
       <c r="M326" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="12.75" customHeight="1">
@@ -10660,7 +10313,7 @@
         <v>39</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>9</v>
@@ -10677,18 +10330,18 @@
       <c r="K327" s="10"/>
       <c r="L327" s="3"/>
       <c r="M327" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="12.75" customHeight="1">
       <c r="A328" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -10703,15 +10356,17 @@
     </row>
     <row r="329" spans="1:13" ht="12.75" customHeight="1">
       <c r="A329" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>335</v>
+        <v>551</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D329" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
       <c r="G329" s="10">
@@ -10731,15 +10386,15 @@
       </c>
       <c r="L329" s="3"/>
       <c r="M329" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="12.75" customHeight="1">
       <c r="A330" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B330" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>9</v>
@@ -10759,120 +10414,98 @@
     </row>
     <row r="331" spans="1:13" ht="12.75" customHeight="1">
       <c r="A331" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D331" s="5"/>
+      <c r="D331" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
-      <c r="G331" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H331" s="10">
-        <v>11000</v>
-      </c>
-      <c r="I331" s="10">
-        <v>13000</v>
-      </c>
-      <c r="J331" s="10">
-        <v>25000</v>
-      </c>
-      <c r="K331" s="10">
-        <v>28000</v>
-      </c>
-      <c r="L331" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M331" s="15" t="s">
-        <v>377</v>
+      <c r="G331" s="10"/>
+      <c r="H331" s="10"/>
+      <c r="I331" s="10"/>
+      <c r="J331" s="10"/>
+      <c r="K331" s="10"/>
+      <c r="L331" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M331" s="14" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="12.75" customHeight="1">
       <c r="A332" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D332" s="5"/>
+      <c r="D332" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
-      <c r="G332" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H332" s="10">
-        <v>11000</v>
-      </c>
-      <c r="I332" s="10">
-        <v>13000</v>
-      </c>
-      <c r="J332" s="10">
-        <v>25000</v>
-      </c>
-      <c r="K332" s="10">
-        <v>28000</v>
-      </c>
-      <c r="L332" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M332" s="15" t="s">
-        <v>287</v>
+      <c r="G332" s="10"/>
+      <c r="H332" s="10"/>
+      <c r="I332" s="10"/>
+      <c r="J332" s="10"/>
+      <c r="K332" s="10"/>
+      <c r="L332" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M332" s="14" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="12.75" customHeight="1">
       <c r="A333" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D333" s="5"/>
+      <c r="D333" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
-      <c r="G333" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H333" s="10">
-        <v>11000</v>
-      </c>
-      <c r="I333" s="10">
-        <v>13000</v>
-      </c>
-      <c r="J333" s="10">
-        <v>25000</v>
-      </c>
-      <c r="K333" s="10">
-        <v>28000</v>
-      </c>
-      <c r="L333" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M333" s="15" t="s">
-        <v>287</v>
+      <c r="G333" s="10"/>
+      <c r="H333" s="10"/>
+      <c r="I333" s="10"/>
+      <c r="J333" s="10"/>
+      <c r="K333" s="10"/>
+      <c r="L333" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M333" s="14" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="12.75" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C334" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D334" s="5"/>
+        <v>375</v>
+      </c>
+      <c r="C334" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
       <c r="G334" s="10">
@@ -10886,22 +10519,24 @@
       </c>
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
-      <c r="L334" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M334" s="15" t="s">
-        <v>379</v>
+      <c r="L334" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M334" s="14" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="12.75" customHeight="1">
       <c r="A335" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C335" s="15"/>
-      <c r="D335" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C335" s="14"/>
+      <c r="D335" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="10">
@@ -10915,24 +10550,26 @@
       </c>
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
-      <c r="L335" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M335" s="15" t="s">
-        <v>379</v>
+      <c r="L335" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M335" s="14" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="12.75" customHeight="1">
       <c r="A336" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B336" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C336" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D336" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="B336" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C336" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="10">
@@ -10950,22 +10587,24 @@
       <c r="K336" s="10">
         <v>31000</v>
       </c>
-      <c r="L336" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M336" s="15" t="s">
-        <v>379</v>
+      <c r="L336" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M336" s="14" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="12.75" customHeight="1">
       <c r="A337" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C337" s="15"/>
-      <c r="D337" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C337" s="14"/>
+      <c r="D337" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
       <c r="G337" s="10">
@@ -10983,20 +10622,20 @@
       <c r="K337" s="10">
         <v>31000</v>
       </c>
-      <c r="L337" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M337" s="15" t="s">
-        <v>379</v>
+      <c r="L337" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M337" s="14" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A338" s="16"/>
+      <c r="A338" s="15"/>
       <c r="B338" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C338" s="15" t="s">
-        <v>236</v>
+        <v>363</v>
+      </c>
+      <c r="C338" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -11006,18 +10645,18 @@
       <c r="I338" s="10"/>
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
-      <c r="L338" s="16"/>
-      <c r="M338" s="15" t="s">
-        <v>287</v>
+      <c r="L338" s="15"/>
+      <c r="M338" s="14" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A339" s="16"/>
+      <c r="A339" s="15"/>
       <c r="B339" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C339" s="15" t="s">
-        <v>236</v>
+        <v>431</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -11027,9 +10666,9 @@
       <c r="I339" s="10"/>
       <c r="J339" s="10"/>
       <c r="K339" s="10"/>
-      <c r="L339" s="16"/>
-      <c r="M339" s="15" t="s">
-        <v>287</v>
+      <c r="L339" s="15"/>
+      <c r="M339" s="14" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="12.75" customHeight="1">
